--- a/Training Track.xlsx
+++ b/Training Track.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\BA\Python Data Science\Projects\MRSA Detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECE0154-0E11-485E-9584-3BC5FB7F3B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541884E2-AC92-4C09-A917-85B3276D7F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5E5602E-5FD7-4D0D-97E0-B9AAC4C9C5BC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,10 +267,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insights from learning vurve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>brief summary of the mdoel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -341,6 +337,31 @@
   </si>
   <si>
     <t xml:space="preserve">The performance significantly improves compared with the self-build CNN model. However, there is still overfitting. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yolov8x model(the largest yolov8 model) with the default hyperparameters.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal fit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insights from learning curve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both training and validation loss continue to decrease and the validation accuracy reached 0.94 at the 68 epoch.
+ However, it seems that the validation dataset is slightly unpresentitive. (training loss that looks like a good fit (or other fits) and a learning curve for validation loss that shows noisy movements)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOLOv8x</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +447,7 @@
     <tableColumn id="8" xr3:uid="{24F73E99-543D-424B-A8CC-F9C374A3BE38}" name="validation loss"/>
     <tableColumn id="9" xr3:uid="{833E434B-3E7D-4188-9184-6F677DC650AC}" name="validation accuracy"/>
     <tableColumn id="10" xr3:uid="{102642D9-A1A5-4BF2-9602-7828BD971E8A}" name="brief summary of the mdoel"/>
-    <tableColumn id="11" xr3:uid="{DA306D96-5566-49A8-B148-DBFB970D6135}" name="insights from learning vurve"/>
+    <tableColumn id="11" xr3:uid="{DA306D96-5566-49A8-B148-DBFB970D6135}" name="insights from learning curve"/>
     <tableColumn id="12" xr3:uid="{80F75BB1-DDFA-4F6C-869A-A5CC61223557}" name="consider to continue training"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -730,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA2354E-63EB-4781-8703-7994A8D163FE}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="73" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -755,52 +776,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="M1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1">
         <v>3</v>
@@ -827,7 +848,7 @@
         <v>10</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,7 +860,7 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -863,10 +884,10 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
@@ -902,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
@@ -938,10 +959,10 @@
         <v>12</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
@@ -979,10 +1000,42 @@
         <v>17</v>
       </c>
       <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>68</v>
+      </c>
+      <c r="G7">
+        <v>0.02</v>
+      </c>
+      <c r="H7">
+        <v>0.995</v>
+      </c>
+      <c r="I7">
+        <v>0.38</v>
+      </c>
+      <c r="J7">
+        <v>0.94</v>
+      </c>
+      <c r="K7" t="s">
         <v>38</v>
       </c>
-      <c r="M6" t="s">
-        <v>37</v>
+      <c r="L7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
